--- a/PCB/BOM/SHIELD_008.xlsx
+++ b/PCB/BOM/SHIELD_008.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmt87\Documents\Miriam\PCB\BOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STRAWLAB\Open_RT_LAMP\Miriam-anna_autofill\PCB\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E602206-001F-4D12-B95C-D5A16F5F9D5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="LED_002" sheetId="1" r:id="rId1"/>
@@ -25,15 +24,15 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="MV255-v7.1" type="6" refreshedVersion="2" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="MV255-v7.1" type="6" refreshedVersion="2" background="1" saveData="1">
     <textPr sourceFile="P:\EAGLE 5.11 PROJEKTY\PROJEKTY\!   6\mv255-5.2\MV255-v7.1.csv" thousands=" " tab="0" comma="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" name="MV255-v7.11" type="6" refreshedVersion="2" background="1" saveData="1">
+  <connection id="2" name="MV255-v7.11" type="6" refreshedVersion="2" background="1" saveData="1">
     <textPr sourceFile="P:\EAGLE 5.11 PROJEKTY\PROJEKTY\!   6\mv255-5.2\MV255-v7.1.csv" thousands=" " tab="0" comma="1">
       <textFields>
         <textField/>
@@ -44,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="88">
   <si>
     <t>PCB:</t>
   </si>
@@ -136,9 +135,6 @@
     <t>JP7</t>
   </si>
   <si>
-    <t>RGL34A thru RGL34K</t>
-  </si>
-  <si>
     <t>Adjustable Output Low Dropout Voltage Regulator 800 mA</t>
   </si>
   <si>
@@ -148,27 +144,15 @@
     <t>DIODE</t>
   </si>
   <si>
-    <t>FDB8880 N-Channel PowerTrench MOSFET</t>
-  </si>
-  <si>
     <t>PIN HEADER</t>
   </si>
   <si>
     <t>.100 (2.54mm) Center Header - 2 Pin"</t>
   </si>
   <si>
-    <t>RGL34A</t>
-  </si>
-  <si>
     <t>MF-R1100</t>
   </si>
   <si>
-    <t>M7</t>
-  </si>
-  <si>
-    <t>FDB8880</t>
-  </si>
-  <si>
     <t>8x1F-H8.5</t>
   </si>
   <si>
@@ -184,15 +168,9 @@
     <t>10x1F-H8.5</t>
   </si>
   <si>
-    <t>DO-213AA_DIODE</t>
-  </si>
-  <si>
     <t>SOT223</t>
   </si>
   <si>
-    <t>SMB</t>
-  </si>
-  <si>
     <t>1X08</t>
   </si>
   <si>
@@ -244,33 +222,6 @@
     <t>Link</t>
   </si>
   <si>
-    <t>http://www.digikey.com/product-detail/en/S1AB-13-F/S1AB-FDICT-ND/755488</t>
-  </si>
-  <si>
-    <t>http://www2.mouser.com/ProductDetail/AVX/TPSA106K010R0900/?qs=YMBIwoNQYdV0MtGvKI9mmw%3D%3D</t>
-  </si>
-  <si>
-    <t>http://www.digikey.com/product-search/en?KeyWords=493-2086-1-ND&amp;WT.z_header=search_go</t>
-  </si>
-  <si>
-    <t>http://www.digikey.com/product-search/en?KeyWords=MF-R1100-ND&amp;WT.z_header=search_go</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/aw/d/B00RJJHWLA/ref=ya_aw_od_pi?ie=UTF8&amp;psc=1</t>
-  </si>
-  <si>
-    <t>http://www.digikey.com/product-detail/en/NCV1117ST50T3G/NCV1117ST50T3GOSCT-ND/1967231</t>
-  </si>
-  <si>
-    <t>http://www.digikey.com/product-detail/en/NCV1117ST33T3G/NCV1117ST33T3GOSCT-ND/2705186</t>
-  </si>
-  <si>
-    <t>http://www.digikey.com/product-search/en?keywords=RGL34G-E3%2F98GICT-ND</t>
-  </si>
-  <si>
-    <t>http://www2.mouser.com/ProductDetail/Fairchild-Semiconductor/FDB8880/?qs=%2fha2pyFaduhm3%252bmJulbefzIwAmz6h6XCUDabfQ%2fDtyg%3d</t>
-  </si>
-  <si>
     <t>SHIELD_008</t>
   </si>
   <si>
@@ -304,23 +255,65 @@
     <t xml:space="preserve"> 4 _Power_ Position Circular Connector Jack, Female Sockets Solder </t>
   </si>
   <si>
-    <t>https://www.digikey.fi/product-detail/en/kycon-inc/KPJX-4S-S/2092-KPJX-4S-S-ND/9990088</t>
-  </si>
-  <si>
     <t>J1, J2, J3, J4, J5</t>
   </si>
   <si>
     <t>WE-FPC 0.5mm SMT ZIF Horizontal Bottom Contact, 6 Pins=&gt;Code : Con_FPC_ZIF_0.50_68710614522</t>
   </si>
   <si>
-    <t>https://www.digikey.fi/product-detail/en/wurth-electronics-inc/68710614522/732-2010-1-ND/2060634</t>
+    <t>https://www.mouser.de/ProductDetail/KEMET/T495A106K010ATA2K0?qs=ds50AKTGxA9fL71AH2RCoQ%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.de/ProductDetail/647-UWX0J470MCL1</t>
+  </si>
+  <si>
+    <t>PSMN017-30BL,118</t>
+  </si>
+  <si>
+    <t>https://www.mouser.de/ProductDetail/771-PSMN017-30BL%2c118</t>
+  </si>
+  <si>
+    <t>N-Channel PowerTrench MOSFET</t>
+  </si>
+  <si>
+    <t>https://www.mouser.de/ProductDetail/485-2491</t>
+  </si>
+  <si>
+    <t>https://www.mouser.de/ProductDetail/806-KPJX-4S-S</t>
+  </si>
+  <si>
+    <t>https://de.farnell.com/wurth-elektronik/68710614522/ffc-05mm-90-unten-ziif-6kont/dp/1641913</t>
+  </si>
+  <si>
+    <t>https://www.mouser.de/ProductDetail/621-S1AB-F</t>
+  </si>
+  <si>
+    <t>S1AB-13-F</t>
+  </si>
+  <si>
+    <t>https://de.farnell.com/vishay/rgl34g-e3-98/diode-fast-0-5a-400v-smd/dp/1336528?st=RGL34G-E3/98</t>
+  </si>
+  <si>
+    <t>RGL34G-E3/98</t>
+  </si>
+  <si>
+    <t>Semiconductor diode</t>
+  </si>
+  <si>
+    <t>https://www.mouser.de/ProductDetail/863-NCV1117ST50T3G</t>
+  </si>
+  <si>
+    <t>https://www.mouser.de/ProductDetail/863-NCV1117ST33T3G</t>
+  </si>
+  <si>
+    <t>https://www.mouser.de/ProductDetail/652-MF-R1100</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -377,6 +370,12 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -470,7 +469,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -494,7 +493,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1"/>
@@ -505,12 +503,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="好" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="差" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="好" xfId="1"/>
+    <cellStyle name="差" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -526,7 +527,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="MV255-v7.1_1" connectionId="2" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MV255-v7.1_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh headersInLastRefresh="0" nextId="6">
     <queryTableFields count="5">
       <queryTableField id="1"/>
@@ -867,22 +868,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" customWidth="1"/>
-    <col min="4" max="4" width="13.109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="20.44140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8">
@@ -890,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="2:8" s="1" customFormat="1">
@@ -913,18 +914,18 @@
         <v>6</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="2:8">
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="16">
         <v>1</v>
       </c>
-      <c r="D3" s="18" t="s">
-        <v>55</v>
+      <c r="D3" s="17" t="s">
+        <v>48</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>9</v>
@@ -936,13 +937,13 @@
       <c r="H3" s="8"/>
     </row>
     <row r="4" spans="2:8">
-      <c r="B4" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="D4" s="17" t="s">
+      <c r="B4" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="16" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="6" t="s">
@@ -955,13 +956,13 @@
       <c r="H4" s="8"/>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" s="17" t="s">
+      <c r="B5" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="8" t="s">
@@ -974,13 +975,13 @@
       <c r="H5" s="8"/>
     </row>
     <row r="6" spans="2:8">
-      <c r="B6" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6" s="19" t="s">
+      <c r="B6" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="18" t="s">
         <v>18</v>
       </c>
       <c r="E6" s="8" t="s">
@@ -993,13 +994,13 @@
       <c r="H6" s="8"/>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="18" t="s">
         <v>19</v>
       </c>
       <c r="E7" s="8" t="s">
@@ -1010,75 +1011,75 @@
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="12" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="8" t="s">
-        <v>52</v>
-      </c>
       <c r="F8" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="8"/>
     </row>
     <row r="9" spans="2:8">
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>51</v>
-      </c>
       <c r="F9" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="8"/>
     </row>
     <row r="10" spans="2:8">
-      <c r="B10" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="C10" s="17" t="s">
+      <c r="B10" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="19" t="s">
-        <v>43</v>
+      <c r="D10" s="18" t="s">
+        <v>38</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="8"/>
     </row>
     <row r="11" spans="2:8">
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="20" t="s">
-        <v>54</v>
+      <c r="D11" s="19" t="s">
+        <v>47</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>9</v>
@@ -1090,14 +1091,14 @@
       <c r="H11" s="8"/>
     </row>
     <row r="12" spans="2:8">
-      <c r="B12" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" s="20" t="s">
+      <c r="B12" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="20" t="s">
-        <v>57</v>
+      <c r="D12" s="19" t="s">
+        <v>50</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>9</v>
@@ -1109,247 +1110,245 @@
       <c r="H12" s="8"/>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13" s="17" t="s">
+      <c r="B13" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="19" t="s">
-        <v>42</v>
+      <c r="D13" s="18" t="s">
+        <v>37</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>21</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="12" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="2:8">
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="19" t="s">
-        <v>41</v>
+      <c r="D14" s="18" t="s">
+        <v>36</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="8"/>
     </row>
     <row r="15" spans="2:8">
-      <c r="B15" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>34</v>
+      <c r="B15" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>76</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="2:8">
-      <c r="B16" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="C16" s="17" t="s">
+      <c r="B16" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="19" t="s">
-        <v>62</v>
+      <c r="D16" s="18" t="s">
+        <v>55</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="12" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="2:8">
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>48</v>
+      <c r="D17" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>81</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="12" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="2:8">
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="17">
+      <c r="C18" s="16">
         <v>1</v>
       </c>
-      <c r="D18" s="19" t="s">
-        <v>38</v>
+      <c r="D18" s="18" t="s">
+        <v>35</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G18" s="7"/>
       <c r="H18" s="12" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="2:8">
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="17">
+      <c r="C19" s="16">
         <v>1</v>
       </c>
-      <c r="D19" s="19" t="s">
-        <v>61</v>
+      <c r="D19" s="18" t="s">
+        <v>54</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="12" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="2:8">
-      <c r="B20" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" s="20" t="s">
+      <c r="B20" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="19" t="s">
-        <v>60</v>
+      <c r="D20" s="18" t="s">
+        <v>53</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G20" s="7"/>
       <c r="H20" s="12" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="2:8">
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="F21" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="G21" s="13"/>
+      <c r="H21" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="C21" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="D21" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="14"/>
-      <c r="H21" s="12" t="s">
-        <v>73</v>
-      </c>
     </row>
     <row r="22" spans="2:8">
-      <c r="B22" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="C22" s="19">
+      <c r="B22" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="18">
         <v>1</v>
       </c>
-      <c r="D22" s="19" t="s">
-        <v>84</v>
+      <c r="D22" s="18" t="s">
+        <v>68</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="G22" s="15"/>
-      <c r="H22" s="16" t="s">
-        <v>86</v>
+        <v>69</v>
+      </c>
+      <c r="G22" s="14"/>
+      <c r="H22" s="15" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="2:8">
       <c r="B23" s="8" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="C23" s="8">
         <v>5</v>
       </c>
-      <c r="D23" s="15"/>
+      <c r="D23" s="14"/>
       <c r="E23" s="8">
         <v>68710614522</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="G23" s="15"/>
-      <c r="H23" s="16" t="s">
-        <v>89</v>
+        <v>71</v>
+      </c>
+      <c r="G23" s="14"/>
+      <c r="H23" s="12" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B2:G17" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="B2:G17"/>
   <hyperlinks>
-    <hyperlink ref="H17" r:id="rId1" xr:uid="{ADCE66C6-DB42-4675-96B0-6792AD635208}"/>
-    <hyperlink ref="H7" r:id="rId2" xr:uid="{373B085A-9481-453A-9F9D-1CF3FD2734C5}"/>
-    <hyperlink ref="H13" r:id="rId3" xr:uid="{3418EAE8-F24C-46E1-9A48-CF7C797870F9}"/>
-    <hyperlink ref="H18" r:id="rId4" xr:uid="{6A38A895-7803-4ACA-992C-D808D5B086A6}"/>
-    <hyperlink ref="H16" r:id="rId5" xr:uid="{DD1936B0-D4C0-47B2-B74B-3BFFC6C49C9E}"/>
-    <hyperlink ref="H19" r:id="rId6" xr:uid="{B9E28E83-9BE1-4B82-B9E3-8DF4A68BC1FC}"/>
-    <hyperlink ref="H20" r:id="rId7" xr:uid="{E36C6BCA-30AE-4912-9895-B79A4C2FB550}"/>
-    <hyperlink ref="H21" r:id="rId8" xr:uid="{74454BD9-3D87-4461-B996-7ADCF51E372F}"/>
-    <hyperlink ref="H15" r:id="rId9" xr:uid="{3BDB6276-FA6B-4C74-B17E-19A260EF3465}"/>
-    <hyperlink ref="H22" r:id="rId10" xr:uid="{9FD1BFA5-5141-4BEB-B760-B044D01582FB}"/>
-    <hyperlink ref="H23" r:id="rId11" xr:uid="{AA673F08-5E22-4758-9B34-E74A11E1DE27}"/>
+    <hyperlink ref="H13" r:id="rId1"/>
+    <hyperlink ref="H15" r:id="rId2"/>
+    <hyperlink ref="H16" r:id="rId3"/>
+    <hyperlink ref="H23" r:id="rId4"/>
+    <hyperlink ref="H17" r:id="rId5"/>
+    <hyperlink ref="H21" r:id="rId6"/>
+    <hyperlink ref="H19" r:id="rId7"/>
+    <hyperlink ref="H20" r:id="rId8"/>
+    <hyperlink ref="H18" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
   <ignoredErrors>
     <ignoredError sqref="C20" numberStoredAsText="1"/>
   </ignoredErrors>

--- a/PCB/BOM/SHIELD_008.xlsx
+++ b/PCB/BOM/SHIELD_008.xlsx
@@ -33,7 +33,7 @@
     <t xml:space="preserve">SHIELD_008</t>
   </si>
   <si>
-    <t xml:space="preserve">part</t>
+    <t xml:space="preserve">References</t>
   </si>
   <si>
     <t xml:space="preserve">pcs/pcb</t>
@@ -480,7 +480,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -521,10 +521,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -545,10 +541,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -558,10 +550,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -607,15 +595,15 @@
   </sheetPr>
   <dimension ref="B1:H23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I9" activeCellId="0" sqref="I9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.01171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.01953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="13.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="15.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="20.42"/>
@@ -663,14 +651,14 @@
       <c r="D3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="11"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="10"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="8" t="s">
@@ -682,133 +670,133 @@
       <c r="D4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="12"/>
-      <c r="H4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="10"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="11"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="10"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="11"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="10"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="12" t="s">
         <v>24</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="12"/>
-      <c r="H7" s="14" t="s">
+      <c r="G7" s="11"/>
+      <c r="H7" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="12" t="s">
         <v>30</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="12"/>
-      <c r="H8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="10"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="12" t="s">
         <v>35</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="12"/>
-      <c r="H9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="10"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="12" t="s">
         <v>38</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="12"/>
-      <c r="H10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="10"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="12" t="s">
         <v>41</v>
       </c>
       <c r="C11" s="8" t="s">
@@ -817,17 +805,17 @@
       <c r="D11" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="12"/>
-      <c r="H11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="10"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="14" t="s">
         <v>43</v>
       </c>
       <c r="C12" s="9" t="s">
@@ -836,237 +824,237 @@
       <c r="D12" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="12"/>
-      <c r="H12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="10"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="14" t="s">
         <v>45</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="G13" s="12"/>
-      <c r="H13" s="14" t="s">
+      <c r="G13" s="11"/>
+      <c r="H13" s="13" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="12" t="s">
         <v>49</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="F14" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="G14" s="12"/>
-      <c r="H14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="10"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="12" t="s">
         <v>53</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="E15" s="17" t="s">
+      <c r="E15" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="F15" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="G15" s="12"/>
-      <c r="H15" s="14" t="s">
+      <c r="G15" s="11"/>
+      <c r="H15" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="12" t="s">
         <v>57</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="F16" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="G16" s="12"/>
-      <c r="H16" s="14" t="s">
+      <c r="G16" s="11"/>
+      <c r="H16" s="13" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="12" t="s">
         <v>61</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="E17" s="17" t="s">
+      <c r="E17" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="F17" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="G17" s="12"/>
-      <c r="H17" s="14" t="s">
+      <c r="G17" s="11"/>
+      <c r="H17" s="13" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="12" t="s">
         <v>65</v>
       </c>
       <c r="C18" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="F18" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="G18" s="12"/>
-      <c r="H18" s="14" t="s">
+      <c r="G18" s="11"/>
+      <c r="H18" s="13" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="12" t="s">
         <v>69</v>
       </c>
       <c r="C19" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="F19" s="11" t="s">
+      <c r="F19" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="G19" s="12"/>
-      <c r="H19" s="14" t="s">
+      <c r="G19" s="11"/>
+      <c r="H19" s="13" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="14" t="s">
         <v>74</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11" t="s">
+      <c r="E20" s="10"/>
+      <c r="F20" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="G20" s="12"/>
-      <c r="H20" s="14" t="s">
+      <c r="G20" s="11"/>
+      <c r="H20" s="13" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="D21" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="E21" s="17" t="s">
+      <c r="E21" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="F21" s="21" t="s">
+      <c r="F21" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="G21" s="22"/>
-      <c r="H21" s="14" t="s">
+      <c r="G21" s="19"/>
+      <c r="H21" s="13" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="C22" s="13" t="n">
+      <c r="C22" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="E22" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="F22" s="11" t="s">
+      <c r="F22" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="G22" s="23"/>
-      <c r="H22" s="24" t="s">
+      <c r="G22" s="20"/>
+      <c r="H22" s="21" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="C23" s="11" t="n">
+      <c r="C23" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="D23" s="23"/>
-      <c r="E23" s="11" t="n">
+      <c r="D23" s="20"/>
+      <c r="E23" s="10" t="n">
         <v>68710614522</v>
       </c>
-      <c r="F23" s="11" t="s">
+      <c r="F23" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="G23" s="23"/>
-      <c r="H23" s="14" t="s">
+      <c r="G23" s="20"/>
+      <c r="H23" s="13" t="s">
         <v>87</v>
       </c>
     </row>
